--- a/Data/Gini_index.xlsx
+++ b/Data/Gini_index.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anandlogesh R R\Desktop\Sem 7\Climate Econ Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Acad stuff\SEM VII\HS4870\project\Modelling and report\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4030BBB1-D88F-4A71-80DA-A1C1D0045FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11520" yWindow="4092" windowWidth="17280" windowHeight="9420" xr2:uid="{FBACAC69-8C64-4DA3-8BF6-3AE35B0E5889}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,20 +36,31 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Gini Coeffiecient</t>
+    <t>Gini_Coeffiecient</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -61,7 +71,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -69,12 +79,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,181 +415,576 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC72B14-CD64-4D95-A552-67758099EAFD}">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="2">
+        <v>1951</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.48756695999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1952</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.48691618800000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>1953</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.48116335799999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>1954</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.49823446599999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>1955</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.50996522300000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>1956</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.51327139899999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>1957</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.50155523499999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>1958</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.50632166499999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>1959</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.49941249399999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>1960</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.488391615</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>1961</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.48823381599999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>1962</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.48296309500000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>1963</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.46557353299999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>1964</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.469687515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>1965</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.47053917099999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>1966</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.474209932</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>1967</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.472865698</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>1968</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.46741814799999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>1969</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.47664337400000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>1970</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.47825377299999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>1971</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.461650281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>1972</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.45939714799999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>1973</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.45872006300000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>1974</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.45917663600000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>1975</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.46042308700000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>1976</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.46213121899999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>1977</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.460437867</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>1978</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.456786472</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>1979</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.44586174699999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>1980</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.44047660599999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>1981</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.43478828800000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>1982</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.43017417299999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>1983</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.47220311700000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>1984</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.45762725599999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>1985</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.46948857900000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.47215675600000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>1987</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.46781499700000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>1988</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.47541155000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>1989</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.47546367299999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>1990</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.46067537200000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>1991</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.46480366699999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>1992</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.47166686099999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>1993</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.48525715899999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>1994</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.49640643000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>1995</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.49673986199999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>1996</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.49377890099999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>1997</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.49986523799999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>1998</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.50377581100000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>1999</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.50564834599999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
         <v>2000</v>
       </c>
-      <c r="B2">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="B51" s="2">
+        <v>0.50853579599999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
         <v>2001</v>
       </c>
-      <c r="B3">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="B52" s="2">
+        <v>0.51780435700000005</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
         <v>2002</v>
       </c>
-      <c r="B4">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="B53" s="2">
+        <v>0.52721161000000005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
         <v>2003</v>
       </c>
-      <c r="B5">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="B54" s="2">
+        <v>0.53675103899999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
         <v>2004</v>
       </c>
-      <c r="B6">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="B55" s="2">
+        <v>0.54641561599999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
         <v>2005</v>
       </c>
-      <c r="B7">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="B56" s="2">
+        <v>0.55619751799999995</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
         <v>2006</v>
       </c>
-      <c r="B8">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="B57" s="2">
+        <v>0.56597230600000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
         <v>2007</v>
       </c>
-      <c r="B9">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="B58" s="2">
+        <v>0.57595568799999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
         <v>2008</v>
       </c>
-      <c r="B10">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="B59" s="2">
+        <v>0.58613355499999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
         <v>2009</v>
       </c>
-      <c r="B11">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="B60" s="2">
+        <v>0.596489818</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
         <v>2010</v>
       </c>
-      <c r="B12">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="B61" s="2">
+        <v>0.60700629699999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
         <v>2011</v>
       </c>
-      <c r="B13">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="B62" s="2">
+        <v>0.62034834900000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
         <v>2012</v>
       </c>
-      <c r="B14">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="B63" s="2">
+        <v>0.62637289600000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
         <v>2013</v>
       </c>
-      <c r="B15">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="B64" s="2">
+        <v>0.62785911000000005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
         <v>2014</v>
       </c>
-      <c r="B16">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="B65" s="2">
+        <v>0.63361829999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
         <v>2015</v>
       </c>
-      <c r="B17">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="B66" s="2">
+        <v>0.63361825999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
         <v>2016</v>
       </c>
-      <c r="B18">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="B67" s="2">
+        <v>0.63361809800000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
         <v>2017</v>
       </c>
-      <c r="B19">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="B68" s="2">
+        <v>0.63361809800000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
         <v>2018</v>
       </c>
-      <c r="B20">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="B69" s="2">
+        <v>0.63361814900000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
         <v>2019</v>
       </c>
-      <c r="B21">
-        <v>0.63</v>
+      <c r="B70" s="2">
+        <v>0.63361810799999996</v>
       </c>
     </row>
   </sheetData>
